--- a/PASKurs/лабораторные работы/l3/PAS3.PAS1.xlsx
+++ b/PASKurs/лабораторные работы/l3/PAS3.PAS1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\GitHub projects\KursPro\PASKurs\лабораторные работы\l3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\KursPro\PASKurs\лабораторные работы\l3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C76999-AF4E-40F6-B9EE-FD251E9FA7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab3-TODO" sheetId="6" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <sheet name="6-РКИСиРК" sheetId="4" state="hidden" r:id="rId7"/>
     <sheet name="8-ОКАСОИиК" sheetId="5" state="hidden" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -444,7 +445,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1563,11 +1564,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1604,66 +1665,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1978,25 +1979,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:AE9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B4" s="93" t="s">
         <v>121</v>
       </c>
@@ -2044,7 +2045,7 @@
       <c r="AD4" s="93"/>
       <c r="AE4" s="93"/>
     </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B5" s="93">
         <v>21</v>
       </c>
@@ -2098,7 +2099,7 @@
       <c r="AD5" s="93"/>
       <c r="AE5" s="93"/>
     </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B6" s="93">
         <v>21</v>
       </c>
@@ -2111,23 +2112,23 @@
         <v>70</v>
       </c>
       <c r="E6" s="93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="94">
-        <f>ЭкспертныеДанные!F9</f>
-        <v>366.67</v>
+        <f>ЭкспертныеДанные!F10</f>
+        <v>190.02</v>
       </c>
       <c r="G6" s="94">
-        <f>ЭкспертныеДанные!G9</f>
-        <v>16500</v>
+        <f>ЭкспертныеДанные!G10</f>
+        <v>10451</v>
       </c>
       <c r="H6" s="94">
         <f t="shared" ref="H6:H9" si="0">ROUNDUP(F6/C6,0)</f>
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="I6" s="94">
         <f t="shared" ref="I6:I9" si="1">ROUND(H6*D6,0)</f>
-        <v>14700</v>
+        <v>7630</v>
       </c>
       <c r="J6" s="93"/>
       <c r="K6" s="93"/>
@@ -2152,7 +2153,7 @@
       <c r="AD6" s="93"/>
       <c r="AE6" s="93"/>
     </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B7" s="93">
         <v>22</v>
       </c>
@@ -2165,23 +2166,23 @@
         <v>55</v>
       </c>
       <c r="E7" s="93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="94">
-        <f>ЭкспертныеДанные!F10</f>
-        <v>190.02</v>
+        <f>ЭкспертныеДанные!F11</f>
+        <v>452</v>
       </c>
       <c r="G7" s="94">
-        <f>ЭкспертныеДанные!G10</f>
-        <v>10451</v>
+        <f>ЭкспертныеДанные!G11</f>
+        <v>27120</v>
       </c>
       <c r="H7" s="94">
         <f t="shared" si="0"/>
-        <v>146</v>
+        <v>346</v>
       </c>
       <c r="I7" s="94">
         <f t="shared" si="1"/>
-        <v>8030</v>
+        <v>19030</v>
       </c>
       <c r="J7" s="93"/>
       <c r="K7" s="93"/>
@@ -2206,17 +2207,17 @@
       <c r="AD7" s="93"/>
       <c r="AE7" s="93"/>
     </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B8" s="93">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="97">
-        <f>КаталогРазрабов!D9</f>
-        <v>1.31</v>
+        <f>КаталогРазрабов!D10</f>
+        <v>2.5</v>
       </c>
       <c r="D8" s="93">
-        <f>КаталогРазрабов!E9</f>
-        <v>55</v>
+        <f>КаталогРазрабов!E10</f>
+        <v>45</v>
       </c>
       <c r="E8" s="93" t="s">
         <v>5</v>
@@ -2231,11 +2232,11 @@
       </c>
       <c r="H8" s="94">
         <f t="shared" si="0"/>
-        <v>308</v>
+        <v>162</v>
       </c>
       <c r="I8" s="94">
         <f t="shared" si="1"/>
-        <v>16940</v>
+        <v>7290</v>
       </c>
       <c r="J8" s="93"/>
       <c r="K8" s="93"/>
@@ -2260,7 +2261,7 @@
       <c r="AD8" s="93"/>
       <c r="AE8" s="93"/>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B9" s="93">
         <v>23</v>
       </c>
@@ -2273,23 +2274,23 @@
         <v>45</v>
       </c>
       <c r="E9" s="93" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" s="93">
-        <f>ЭкспертныеДанные!F11</f>
-        <v>452</v>
+        <f>ЭкспертныеДанные!F9</f>
+        <v>366.67</v>
       </c>
       <c r="G9" s="93">
-        <f>ЭкспертныеДанные!G11</f>
-        <v>27120</v>
+        <f>ЭкспертныеДанные!G9</f>
+        <v>16500</v>
       </c>
       <c r="H9" s="94">
         <f t="shared" si="0"/>
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="I9" s="94">
         <f t="shared" si="1"/>
-        <v>8145</v>
+        <v>6615</v>
       </c>
       <c r="J9" s="93"/>
       <c r="K9" s="93"/>
@@ -2320,27 +2321,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C6:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D6" s="99" t="s">
         <v>126</v>
       </c>
       <c r="E6" s="99"/>
     </row>
-    <row r="7" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>125</v>
       </c>
@@ -2351,7 +2352,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>21</v>
       </c>
@@ -2362,7 +2363,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>22</v>
       </c>
@@ -2373,7 +2374,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>23</v>
       </c>
@@ -2393,28 +2394,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="E5:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E5" s="93"/>
       <c r="F5" s="100" t="s">
         <v>128</v>
       </c>
       <c r="G5" s="100"/>
     </row>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E6" s="93" t="s">
         <v>127</v>
       </c>
@@ -2425,7 +2426,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E7" s="93" t="s">
         <v>5</v>
       </c>
@@ -2438,7 +2439,7 @@
         <v>20142</v>
       </c>
     </row>
-    <row r="8" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E8" s="93" t="s">
         <v>6</v>
       </c>
@@ -2451,7 +2452,7 @@
         <v>8177</v>
       </c>
     </row>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E9" s="93" t="s">
         <v>7</v>
       </c>
@@ -2464,7 +2465,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="10" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E10" s="93" t="s">
         <v>8</v>
       </c>
@@ -2477,7 +2478,7 @@
         <v>10451</v>
       </c>
     </row>
-    <row r="11" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E11" s="93" t="s">
         <v>9</v>
       </c>
@@ -2499,26 +2500,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" customWidth="1"/>
-    <col min="17" max="17" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
       <c r="B1" s="101" t="s">
         <v>119</v>
@@ -2552,7 +2553,7 @@
       <c r="Z1" s="102"/>
       <c r="AA1" s="102"/>
     </row>
-    <row r="2" spans="1:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4">
         <v>1</v>
       </c>
@@ -2626,7 +2627,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -2670,7 +2671,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T4" s="5">
         <v>3</v>
       </c>
@@ -2707,26 +2708,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -2749,18 +2750,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4">
         <f>SUM(H7:H11) + SUM(K7:K11) + 1</f>
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>23</v>
       </c>
@@ -2768,8 +2769,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G7" t="s">
         <v>24</v>
       </c>
@@ -2791,7 +2792,7 @@
         <v>43 - 45</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G8" t="s">
         <v>25</v>
       </c>
@@ -2803,7 +2804,7 @@
         <v>12 - 18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G9" t="s">
         <v>26</v>
       </c>
@@ -2815,7 +2816,7 @@
         <v>19 - 26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G10" t="s">
         <v>27</v>
       </c>
@@ -2827,7 +2828,7 @@
         <v>27 - 34</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
         <v>28</v>
       </c>
@@ -2839,31 +2840,31 @@
         <v>35 - 42</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>20</v>
       </c>
@@ -2884,7 +2885,7 @@
       </c>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="105" t="s">
         <v>5</v>
       </c>
@@ -2909,7 +2910,7 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="106"/>
       <c r="B3" s="30" t="s">
         <v>1</v>
@@ -2932,7 +2933,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="106"/>
       <c r="B4" s="30" t="s">
         <v>2</v>
@@ -2955,7 +2956,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="106"/>
       <c r="B5" s="9" t="s">
         <v>3</v>
@@ -2978,7 +2979,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="107"/>
       <c r="B6" s="33" t="s">
         <v>4</v>
@@ -3001,7 +3002,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="103" t="s">
         <v>10</v>
       </c>
@@ -3017,7 +3018,7 @@
       <c r="H7" s="7"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="105" t="s">
         <v>6</v>
       </c>
@@ -3042,7 +3043,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="106"/>
       <c r="B9" s="26" t="s">
         <v>1</v>
@@ -3065,7 +3066,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="106"/>
       <c r="B10" s="26" t="s">
         <v>2</v>
@@ -3089,7 +3090,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="106"/>
       <c r="B11" s="26" t="s">
         <v>3</v>
@@ -3113,7 +3114,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="107"/>
       <c r="B12" s="33" t="s">
         <v>4</v>
@@ -3136,7 +3137,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="103" t="s">
         <v>11</v>
       </c>
@@ -3149,7 +3150,7 @@
         <v>8177</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="105" t="s">
         <v>7</v>
       </c>
@@ -3174,7 +3175,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="106"/>
       <c r="B15" s="30" t="s">
         <v>1</v>
@@ -3197,7 +3198,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="106"/>
       <c r="B16" s="9" t="s">
         <v>2</v>
@@ -3220,7 +3221,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="106"/>
       <c r="B17" s="26" t="s">
         <v>3</v>
@@ -3243,7 +3244,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="107"/>
       <c r="B18" s="9" t="s">
         <v>4</v>
@@ -3267,7 +3268,7 @@
       <c r="J18" s="10"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="103" t="s">
         <v>12</v>
       </c>
@@ -3284,7 +3285,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="105" t="s">
         <v>8</v>
       </c>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="106"/>
       <c r="B21" s="30" t="s">
         <v>1</v>
@@ -3326,7 +3327,7 @@
       </c>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="106"/>
       <c r="B22" s="9" t="s">
         <v>2</v>
@@ -3347,7 +3348,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="106"/>
       <c r="B23" s="26" t="s">
         <v>3</v>
@@ -3367,7 +3368,7 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="107"/>
       <c r="B24" s="9" t="s">
         <v>4</v>
@@ -3388,7 +3389,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="103" t="s">
         <v>13</v>
       </c>
@@ -3402,7 +3403,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="105" t="s">
         <v>9</v>
       </c>
@@ -3425,7 +3426,7 @@
       <c r="G26" s="8"/>
       <c r="M26" s="11"/>
     </row>
-    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="106"/>
       <c r="B27" s="26" t="s">
         <v>1</v>
@@ -3445,7 +3446,7 @@
       </c>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="106"/>
       <c r="B28" s="26" t="s">
         <v>2</v>
@@ -3465,7 +3466,7 @@
       </c>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="106"/>
       <c r="B29" s="26" t="s">
         <v>3</v>
@@ -3485,7 +3486,7 @@
       </c>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="107"/>
       <c r="B30" s="9" t="s">
         <v>4</v>
@@ -3505,7 +3506,7 @@
       </c>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="103" t="s">
         <v>14</v>
       </c>
@@ -3519,7 +3520,7 @@
       </c>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A31:E31"/>
@@ -3538,22 +3539,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="39" t="s">
         <v>39</v>
       </c>
@@ -3593,7 +3594,7 @@
         <v>34051</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>42</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
       <c r="E5" s="1">
@@ -3623,7 +3624,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
         <v>41</v>
       </c>
@@ -3647,7 +3648,7 @@
         <v>34200</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="38"/>
       <c r="D9" s="35" t="s">
         <v>51</v>
@@ -3669,7 +3670,7 @@
       </c>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10">
         <f>PRODUCT(H10:J10)</f>
         <v>13680</v>
@@ -3691,11 +3692,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
         <v>50</v>
       </c>
@@ -3719,7 +3720,7 @@
         <v>25300.000000000004</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="38"/>
       <c r="D14" s="35" t="s">
         <v>51</v>
@@ -3740,7 +3741,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15">
         <f>PRODUCT(H15:J15)</f>
         <v>10120.000000000002</v>
@@ -3768,56 +3769,56 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="109" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="136" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="110" t="s">
+      <c r="C1" s="137"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="108" t="s">
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="127" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="109" t="s">
+      <c r="L1" s="125" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="125"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="138"/>
       <c r="E2" s="76" t="s">
         <v>5</v>
       </c>
@@ -3836,30 +3837,30 @@
       <c r="J2" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="108"/>
-      <c r="L2" s="109"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="109"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="113" t="s">
+      <c r="K2" s="127"/>
+      <c r="L2" s="125"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="125"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="133" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="109"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="125"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="121"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="125"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="126"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="141"/>
       <c r="E4" s="84" t="str">
         <f>'4-ОМК'!I7</f>
         <v>1 -  11</v>
@@ -3893,15 +3894,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46">
         <v>1</v>
       </c>
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="126"/>
-      <c r="D5" s="108"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="127"/>
       <c r="E5" s="66" t="s">
         <v>56</v>
       </c>
@@ -3927,15 +3928,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="46">
         <v>2</v>
       </c>
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="108"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="65" t="s">
         <v>56</v>
       </c>
@@ -3961,15 +3962,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="46">
         <v>3</v>
       </c>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="108"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="127"/>
       <c r="E7" s="88" t="str">
         <f>E4</f>
         <v>1 -  11</v>
@@ -4002,15 +4003,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="46">
         <v>4</v>
       </c>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="127"/>
-      <c r="D8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="129"/>
       <c r="E8" s="67">
         <v>2</v>
       </c>
@@ -4036,11 +4037,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="46">
         <v>5</v>
       </c>
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="116" t="s">
         <v>67</v>
       </c>
       <c r="C9" s="100" t="s">
@@ -4074,11 +4075,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="46">
         <v>6</v>
       </c>
-      <c r="B10" s="123"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="100"/>
       <c r="D10" s="55" t="s">
         <v>62</v>
@@ -4116,11 +4117,11 @@
         <v>11960</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="46">
         <v>7</v>
       </c>
-      <c r="B11" s="123"/>
+      <c r="B11" s="124"/>
       <c r="C11" s="100" t="s">
         <v>64</v>
       </c>
@@ -4152,11 +4153,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="46">
         <v>8</v>
       </c>
-      <c r="B12" s="123"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="100"/>
       <c r="D12" s="55" t="s">
         <v>66</v>
@@ -4194,12 +4195,12 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="46">
         <v>9</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="126" t="s">
+      <c r="B13" s="124"/>
+      <c r="C13" s="112" t="s">
         <v>67</v>
       </c>
       <c r="D13" s="55" t="s">
@@ -4230,11 +4231,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="46">
         <v>10</v>
       </c>
-      <c r="B14" s="124"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="101"/>
       <c r="D14" s="58" t="s">
         <v>73</v>
@@ -4270,14 +4271,14 @@
         <v>82390</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="46">
         <v>11</v>
       </c>
-      <c r="B15" s="122" t="s">
+      <c r="B15" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="126" t="s">
+      <c r="C15" s="112" t="s">
         <v>68</v>
       </c>
       <c r="D15" s="55" t="s">
@@ -4309,12 +4310,12 @@
       </c>
       <c r="Q15" s="11"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="46">
         <v>12</v>
       </c>
-      <c r="B16" s="123"/>
-      <c r="C16" s="126"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="112"/>
       <c r="D16" s="55" t="s">
         <v>77</v>
       </c>
@@ -4345,11 +4346,11 @@
         <v>34051</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="46">
         <v>13</v>
       </c>
-      <c r="B17" s="123"/>
+      <c r="B17" s="124"/>
       <c r="C17" s="47" t="s">
         <v>69</v>
       </c>
@@ -4383,11 +4384,11 @@
         <v>34200</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="46">
         <v>14</v>
       </c>
-      <c r="B18" s="124"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="50" t="s">
         <v>70</v>
       </c>
@@ -4423,14 +4424,14 @@
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="46">
         <v>15</v>
       </c>
-      <c r="B19" s="133" t="s">
+      <c r="B19" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="136" t="s">
+      <c r="C19" s="117" t="s">
         <v>80</v>
       </c>
       <c r="D19" s="55" t="s">
@@ -4461,12 +4462,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="46">
         <v>16</v>
       </c>
-      <c r="B20" s="134"/>
-      <c r="C20" s="126"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="112"/>
       <c r="D20" s="55" t="s">
         <v>83</v>
       </c>
@@ -4504,12 +4505,12 @@
       </c>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="46">
         <v>17</v>
       </c>
-      <c r="B21" s="134"/>
-      <c r="C21" s="126" t="s">
+      <c r="B21" s="114"/>
+      <c r="C21" s="112" t="s">
         <v>81</v>
       </c>
       <c r="D21" s="55" t="s">
@@ -4540,11 +4541,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="46">
         <v>18</v>
       </c>
-      <c r="B22" s="135"/>
+      <c r="B22" s="115"/>
       <c r="C22" s="101"/>
       <c r="D22" s="58" t="s">
         <v>85</v>
@@ -4581,15 +4582,15 @@
         <v>4880</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="46">
         <v>19</v>
       </c>
-      <c r="B23" s="122" t="s">
+      <c r="B23" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="136"/>
-      <c r="D23" s="137"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="118"/>
       <c r="E23" s="65">
         <f>ROUND((E10+E12+E14+E20+E22)/'4-ОМК'!H7, 2)</f>
         <v>3913.64</v>
@@ -4617,21 +4618,21 @@
       <c r="K23" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="L23" s="131">
+      <c r="L23" s="110">
         <f>SUM(E24:J24)+K25</f>
         <v>271109</v>
       </c>
       <c r="S23" s="11"/>
     </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="46">
         <v>20</v>
       </c>
-      <c r="B24" s="124" t="s">
+      <c r="B24" s="119" t="s">
         <v>89</v>
       </c>
       <c r="C24" s="101"/>
-      <c r="D24" s="138"/>
+      <c r="D24" s="120"/>
       <c r="E24" s="67">
         <f>E10+E12+E14+E20+E22</f>
         <v>43050</v>
@@ -4659,52 +4660,52 @@
       <c r="K24" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="L24" s="132"/>
-    </row>
-    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L24" s="111"/>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="46">
         <v>21</v>
       </c>
-      <c r="B25" s="139" t="s">
+      <c r="B25" s="121" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="140"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="141"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="123"/>
       <c r="K25" s="64">
         <f>K20+K12+K10+SUM(K16:K18)</f>
         <v>95279</v>
       </c>
-      <c r="L25" s="132"/>
-    </row>
-    <row r="26" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L25" s="111"/>
+    </row>
+    <row r="26" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="48">
         <v>22</v>
       </c>
-      <c r="B26" s="129" t="s">
+      <c r="B26" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="130"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="130"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="109"/>
       <c r="L26" s="60">
         <f>L10+L12+L14+SUM(L16:L18)+L20+L22</f>
         <v>271109</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K28" t="s">
         <v>95</v>
       </c>
@@ -4714,7 +4715,7 @@
       </c>
       <c r="M28" s="49"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B30" s="99" t="s">
         <v>92</v>
       </c>
@@ -4735,23 +4736,23 @@
       <c r="K30" s="99"/>
       <c r="L30" s="99"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B32" s="38"/>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="45"/>
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
@@ -4759,16 +4760,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="F30:L30"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="B1:D4"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B6:D6"/>
@@ -4780,11 +4776,16 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="F30:L30"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="C19:C20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
